--- a/biology/Médecine/Nina_Škottová/Nina_Škottová.xlsx
+++ b/biology/Médecine/Nina_Škottová/Nina_Škottová.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nina_%C5%A0kottov%C3%A1</t>
+          <t>Nina_Škottová</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nina Škottová (née le 6 octobre 1946 à Prostějov et décédée le 28 avril 2018 à Bedihošť), est une femme politique tchèque, ancienne membre du parlement européen avec le Parti démocratique civique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nina Škottová (née le 6 octobre 1946 à Prostějov et décédée le 28 avril 2018 à Bedihošť), est une femme politique tchèque, ancienne membre du parlement européen avec le Parti démocratique civique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nina_%C5%A0kottov%C3%A1</t>
+          <t>Nina_Škottová</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nina Skottova est née le 6 octobre 1946 à Prostějov en République tchèque. En 1973, elle obtient un doctorat en sciences naturelles auprès de la faculté de pharmacie de l'université Comenius de Bratislava puis travaille jusqu'en 1982 en tant que chercheuse. En 1979, elle fait un post-doctorat. 
 De 1982 à 1990, elle est professeure assistante. En 1990, elle devient maître de conférence senior de la faculté de médecine de l'université Palacký de Olomouc. De 1998 à 2000, elle est vice-présidente de la section locale du Parti démocratique civique de Prostějov. De 1999 à 2004, elle devient directrice de l'institut de pharmacologie.
